--- a/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>CTGL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -741,16 +745,19 @@
       <c r="K8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -759,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -770,16 +777,19 @@
       <c r="K9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -788,19 +798,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,16 +825,17 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -836,13 +850,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,23 +887,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +964,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-600</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,86 +1084,95 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1386,37 +1456,43 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1609,19 +1702,22 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1635,34 +1731,37 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
       <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1678,46 +1777,52 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1000</v>
       </c>
       <c r="K46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>900</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1745,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -1760,13 +1868,16 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,8 +1983,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,28 +2033,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="E54" s="3">
         <v>4500</v>
       </c>
       <c r="F54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1100</v>
       </c>
       <c r="J54" s="3">
         <v>1100</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,13 +2095,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -1992,10 +2123,13 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,10 +2137,10 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2032,7 +2169,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2044,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2052,22 +2189,25 @@
       <c r="K59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -2076,22 +2216,25 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2125,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -2134,13 +2280,16 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -2247,16 +2405,19 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2338,14 +2506,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>700</v>
       </c>
       <c r="K76" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2861,8 +3082,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -2874,13 +3095,16 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,17 +3164,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -2961,13 +3191,16 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,22 +3338,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
@@ -3119,13 +3365,16 @@
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,19 +3402,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
@@ -3177,9 +3429,12 @@
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>CTGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,66 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,16 +747,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,20 +772,20 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -780,8 +793,14 @@
       <c r="L9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -791,29 +810,35 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,11 +864,11 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -853,13 +880,19 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,29 +923,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -922,8 +961,14 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1016,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,16 +1065,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
@@ -1024,13 +1083,19 @@
         <v>-400</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,13 +1119,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1075,8 +1142,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,42 +1157,48 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-400</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1133,69 +1212,81 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1203,8 +1294,14 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,13 +1575,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1459,40 +1598,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1791,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1629,54 +1802,60 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1684,13 +1863,19 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1705,24 +1890,30 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1734,40 +1925,46 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1780,54 +1977,66 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F46" s="3">
         <v>3100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E47" s="3">
         <v>500</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1844,8 +2053,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1856,28 +2071,34 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>300</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1986,11 +2225,11 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1100</v>
       </c>
       <c r="L54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,19 +2355,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2126,27 +2387,33 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -2160,8 +2427,14 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2172,10 +2445,10 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2184,63 +2457,75 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2256,13 +2541,19 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2274,22 +2565,28 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,31 +2693,37 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -2416,8 +2731,14 @@
       <c r="L66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2509,25 +2844,31 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3452,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3034,31 +3467,37 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3085,11 +3526,11 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3098,13 +3539,19 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,23 +3620,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -3194,13 +3653,19 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3826,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,36 +3841,42 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3405,25 +3902,31 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
@@ -3432,9 +3935,15 @@
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>CTGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +785,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -788,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -799,8 +806,11 @@
       <c r="N9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,8 +826,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -826,19 +836,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +884,8 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -886,13 +900,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,32 +946,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-600</v>
       </c>
       <c r="N18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,16 +1153,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1148,8 +1182,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,51 +1194,54 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-500</v>
       </c>
       <c r="L21" s="3">
         <v>-500</v>
       </c>
       <c r="M21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="N21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1218,52 +1258,58 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1288,8 +1334,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,16 +1645,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1842,8 +1932,8 @@
       <c r="E42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3">
+        <v>500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -1857,8 +1947,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1869,16 +1959,19 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1896,27 +1989,30 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1931,22 +2027,25 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
       </c>
       <c r="N44" s="3">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1954,20 +2053,20 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1983,46 +2082,52 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1000</v>
       </c>
       <c r="N46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,14 +2138,14 @@
         <v>500</v>
       </c>
       <c r="F47" s="3">
+        <v>500</v>
+      </c>
+      <c r="G47" s="3">
         <v>900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2077,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -2092,13 +2200,16 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
+        <v>300</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2231,8 +2351,8 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,37 +2410,40 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4500</v>
       </c>
       <c r="H54" s="3">
         <v>4500</v>
       </c>
       <c r="I54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1100</v>
       </c>
       <c r="M54" s="3">
         <v>1100</v>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,22 +2487,23 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2393,30 +2524,33 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -2433,13 +2567,16 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>100</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2451,7 +2588,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2463,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -2471,31 +2608,34 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -2504,31 +2644,34 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2547,16 +2690,19 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2571,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -2580,13 +2726,16 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,28 +2854,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
@@ -2729,16 +2887,19 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2850,14 +3018,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>700</v>
       </c>
       <c r="N76" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3473,31 +3690,34 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3532,8 +3753,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3545,13 +3766,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,26 +3853,29 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -3659,13 +3889,16 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,13 +4075,16 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3847,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
@@ -3865,21 +4111,24 @@
         <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3908,28 +4157,31 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
@@ -3941,9 +4193,12 @@
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CTGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +795,8 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -798,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -809,8 +816,11 @@
       <c r="O9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,8 +839,8 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -839,19 +849,22 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,13 +880,14 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>100</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -887,8 +901,8 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -903,13 +917,16 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,35 +966,38 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,19 +1187,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,57 +1231,60 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
       </c>
       <c r="M21" s="3">
         <v>-500</v>
       </c>
       <c r="N21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1261,55 +1301,61 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
       </c>
       <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1337,8 +1383,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,19 +1715,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1677,49 +1747,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,54 +1966,58 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>500</v>
@@ -1935,8 +2025,8 @@
       <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="G42" s="3">
+        <v>500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1950,8 +2040,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1962,25 +2052,28 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1992,19 +2085,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2014,8 +2110,8 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2030,46 +2126,49 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
       </c>
       <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="H45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2085,49 +2184,55 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
       </c>
       <c r="O46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2141,14 +2246,14 @@
         <v>500</v>
       </c>
       <c r="G47" s="3">
+        <v>500</v>
+      </c>
+      <c r="H47" s="3">
         <v>900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2188,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -2203,13 +2311,16 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,28 +2448,31 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,40 +2536,43 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4500</v>
       </c>
       <c r="I54" s="3">
         <v>4500</v>
       </c>
       <c r="J54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
       </c>
       <c r="N54" s="3">
         <v>1100</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,25 +2618,26 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -2527,33 +2658,36 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1200</v>
       </c>
       <c r="F58" s="3">
         <v>1200</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2570,16 +2704,19 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
+      <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2591,7 +2728,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2603,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2611,34 +2748,37 @@
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -2647,34 +2787,37 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2704,8 +2850,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -2720,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -2729,13 +2875,16 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,31 +3012,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -2890,16 +3048,19 @@
         <v>400</v>
       </c>
       <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3021,14 +3189,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>700</v>
       </c>
       <c r="O76" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,13 +3889,16 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -3693,31 +3910,34 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3756,8 +3977,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3769,13 +3990,16 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,29 +4083,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -3892,13 +4122,16 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,17 +4321,20 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4096,16 +4342,16 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
@@ -4114,24 +4360,27 @@
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4169,22 +4421,22 @@
         <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
@@ -4196,9 +4448,12 @@
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>CTGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +804,8 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -808,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -819,8 +825,11 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +851,8 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -852,19 +861,22 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,17 +893,18 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
@@ -904,8 +917,8 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -920,13 +933,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,29 +997,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1097,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1154,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-600</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,23 +1220,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,60 +1267,63 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-800</v>
+        <v>-1500</v>
       </c>
       <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-5400</v>
-      </c>
       <c r="H21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-500</v>
       </c>
       <c r="N21" s="3">
         <v>-500</v>
       </c>
       <c r="O21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
+        <v>300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1304,58 +1343,64 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1386,8 +1431,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
       <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,23 +1784,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
       <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
       <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2020,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>500</v>
@@ -2028,8 +2117,8 @@
       <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2043,8 +2132,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2070,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2088,19 +2180,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2113,8 +2208,8 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2129,22 +2224,25 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
       </c>
       <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,26 +2250,26 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2187,52 +2285,58 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1000</v>
       </c>
       <c r="P46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2249,14 +2353,14 @@
         <v>500</v>
       </c>
       <c r="H47" s="3">
+        <v>500</v>
+      </c>
+      <c r="I47" s="3">
         <v>900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
@@ -2275,13 +2379,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2299,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -2314,13 +2421,16 @@
         <v>300</v>
       </c>
       <c r="O48" s="3">
+        <v>300</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,43 +2661,46 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4500</v>
       </c>
       <c r="J54" s="3">
         <v>4500</v>
       </c>
       <c r="K54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,19 +2758,19 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2661,10 +2791,13 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,25 +2805,25 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1200</v>
       </c>
       <c r="G58" s="3">
         <v>1200</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -2707,19 +2840,22 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2731,7 +2867,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2743,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -2751,37 +2887,40 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -2790,13 +2929,16 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,23 +2946,23 @@
         <v>1400</v>
       </c>
       <c r="E61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2853,8 +2998,8 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2869,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -2878,13 +3023,16 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,34 +3169,37 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
@@ -3051,16 +3208,19 @@
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,14 +3359,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>700</v>
       </c>
       <c r="P76" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
       <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,7 +4117,7 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -3913,31 +4129,34 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,34 +4173,35 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3993,13 +4213,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,32 +4312,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4125,13 +4354,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,11 +4578,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4345,16 +4590,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
@@ -4363,27 +4608,30 @@
         <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>200</v>
+      </c>
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4412,34 +4660,37 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
         <v>200</v>
       </c>
       <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
@@ -4451,9 +4702,12 @@
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>CTGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,16 +781,22 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,20 +821,20 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,29 +874,35 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,23 +920,25 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -920,11 +948,11 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -936,13 +964,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,44 +1022,50 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,31 +1214,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
@@ -1187,13 +1247,19 @@
         <v>-400</v>
       </c>
       <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,28 +1288,28 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-200</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,58 +1341,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-500</v>
       </c>
       <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,14 +1426,20 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,46 +1447,52 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1434,11 +1526,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,46 +1606,52 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,46 +1659,52 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,28 +1924,28 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>200</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1822,8 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,46 +1977,52 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1925,98 +2083,110 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,78 +2225,86 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>500</v>
+      </c>
+      <c r="S41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+      <c r="I42" s="3">
+        <v>500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2135,11 +2315,11 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2165,17 +2351,17 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2183,33 +2369,39 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2227,55 +2419,61 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2288,55 +2486,67 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1000</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>800</v>
+      </c>
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2356,16 +2566,16 @@
         <v>500</v>
       </c>
       <c r="I47" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="J47" s="3">
         <v>500</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L47" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2382,19 +2592,25 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2409,28 +2625,34 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
       </c>
       <c r="P48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>300</v>
+      </c>
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1100</v>
       </c>
       <c r="Q54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,22 +3023,22 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -2794,42 +3056,48 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -2843,25 +3111,31 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2870,10 +3144,10 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2882,93 +3156,105 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
       <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,22 +3270,28 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3017,22 +3309,28 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,46 +3482,52 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F66" s="3">
         <v>2500</v>
       </c>
       <c r="G66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
@@ -3219,8 +3535,14 @@
       <c r="Q66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3362,25 +3698,31 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-23700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-21300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-9700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,46 +4159,52 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4120,10 +4554,10 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4132,31 +4566,37 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4185,29 +4627,29 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4216,13 +4658,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,38 +4769,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4357,13 +4817,19 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,46 +5070,52 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4627,17 +5125,17 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -4663,40 +5161,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
@@ -4705,9 +5209,15 @@
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>CTGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +834,8 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -837,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +890,8 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -890,19 +900,22 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,15 +947,15 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -954,8 +968,8 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -970,13 +984,16 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,36 +1059,36 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-600</v>
       </c>
       <c r="S18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,32 +1322,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,67 +1378,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
       </c>
       <c r="Q21" s="3">
         <v>-500</v>
       </c>
       <c r="R21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="S21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1432,67 +1472,73 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1532,8 +1578,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,32 +1994,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
       </c>
       <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,14 +2381,14 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>500</v>
@@ -2306,8 +2396,8 @@
       <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>500</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
@@ -2321,8 +2411,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2357,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2375,19 +2468,22 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2425,30 +2521,33 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
       </c>
       <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2457,26 +2556,26 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1000</v>
       </c>
       <c r="S46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2572,14 +2677,14 @@
         <v>500</v>
       </c>
       <c r="K47" s="3">
+        <v>500</v>
+      </c>
+      <c r="L47" s="3">
         <v>900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,13 +2715,13 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2631,13 +2739,13 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -2646,13 +2754,16 @@
         <v>300</v>
       </c>
       <c r="R48" s="3">
+        <v>300</v>
+      </c>
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,52 +3039,55 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1100</v>
       </c>
       <c r="F54" s="3">
         <v>1100</v>
       </c>
       <c r="G54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4500</v>
       </c>
       <c r="M54" s="3">
         <v>4500</v>
       </c>
       <c r="N54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,19 +3160,19 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3062,45 +3193,48 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1200</v>
       </c>
       <c r="J58" s="3">
         <v>1200</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3117,28 +3251,31 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3150,7 +3287,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3162,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3170,46 +3307,49 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3218,46 +3358,49 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1400</v>
       </c>
       <c r="G61" s="3">
         <v>1400</v>
       </c>
       <c r="H61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3315,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3324,13 +3470,16 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,43 +3643,46 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
@@ -3533,16 +3691,19 @@
         <v>400</v>
       </c>
       <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3704,14 +3872,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24500</v>
+        <v>-25700</v>
       </c>
       <c r="E72" s="3">
         <v>-24500</v>
       </c>
       <c r="F72" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-23800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2200</v>
+        <v>-2500</v>
       </c>
       <c r="E76" s="3">
         <v>-2200</v>
       </c>
       <c r="F76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>700</v>
       </c>
       <c r="S76" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,13 +4756,16 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -4560,7 +4777,7 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4572,31 +4789,34 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4642,17 +4863,17 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4664,13 +4885,16 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,29 +5017,29 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4823,13 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,29 +5304,32 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5091,16 +5337,16 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
@@ -5109,13 +5355,16 @@
         <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>200</v>
+      </c>
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5131,14 +5380,14 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5167,43 +5416,46 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>200</v>
       </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
@@ -5215,9 +5467,12 @@
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>CTGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,16 +801,22 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,20 +850,20 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -858,8 +871,14 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -893,29 +912,35 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,18 +977,18 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -971,11 +998,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -987,13 +1014,19 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,39 +1101,39 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>-100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,40 +1303,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
@@ -1286,13 +1345,19 @@
         <v>-400</v>
       </c>
       <c r="S18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,37 +1389,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,76 +1451,82 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-400</v>
       </c>
       <c r="Q21" s="3">
         <v>-500</v>
       </c>
       <c r="R21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1475,70 +1554,82 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1581,11 +1672,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,37 +2133,37 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
       <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
+        <v>300</v>
+      </c>
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>400</v>
-      </c>
-      <c r="S41" s="3">
-        <v>500</v>
       </c>
       <c r="T41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>500</v>
+      </c>
+      <c r="V41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2384,26 +2563,26 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>500</v>
+      </c>
+      <c r="M42" s="3">
+        <v>500</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -2414,11 +2593,11 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2426,13 +2605,19 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2453,17 +2638,17 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2471,19 +2656,25 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2524,64 +2715,70 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2606,60 +2809,66 @@
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1000</v>
       </c>
       <c r="J46" s="3">
         <v>800</v>
       </c>
       <c r="K46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="3">
+        <v>800</v>
+      </c>
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E47" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F47" s="3">
         <v>500</v>
@@ -2680,16 +2889,16 @@
         <v>500</v>
       </c>
       <c r="L47" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M47" s="3">
         <v>500</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,17 +2933,17 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2742,28 +2957,34 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
       </c>
       <c r="S48" s="3">
+        <v>300</v>
+      </c>
+      <c r="T48" s="3">
+        <v>300</v>
+      </c>
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1100</v>
       </c>
       <c r="T54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3401,15 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3163,22 +3424,22 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3196,51 +3457,57 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -3254,34 +3521,40 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3290,10 +3563,10 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3302,111 +3575,123 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
       </c>
       <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3464,22 +3755,28 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,55 +3955,61 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3200</v>
       </c>
       <c r="I66" s="3">
         <v>2500</v>
       </c>
       <c r="J66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
       <c r="R66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>400</v>
+      </c>
+      <c r="V66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3875,25 +4210,31 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>200</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-25700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-24500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-9700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,10 +5201,10 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -4780,10 +5213,10 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -4792,31 +5225,37 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,35 +5292,35 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4888,13 +5329,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5020,32 +5479,32 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5056,13 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5792,19 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5325,46 +5816,52 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>200</v>
+      </c>
+      <c r="T100" s="3">
+        <v>200</v>
+      </c>
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5383,17 +5880,17 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5419,49 +5916,55 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
@@ -5470,9 +5973,15 @@
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CTGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>CTGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -807,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +863,8 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -866,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +928,8 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -928,19 +938,22 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -983,15 +997,15 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1004,8 +1018,8 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1020,13 +1034,16 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,36 +1127,36 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-600</v>
       </c>
       <c r="V18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,41 +1423,41 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,85 +1488,88 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-500</v>
       </c>
       <c r="T21" s="3">
         <v>-500</v>
       </c>
       <c r="U21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="V21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1560,76 +1600,82 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-500</v>
       </c>
       <c r="T23" s="3">
         <v>-500</v>
       </c>
       <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1678,8 +1724,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-500</v>
       </c>
       <c r="T26" s="3">
         <v>-500</v>
       </c>
       <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-500</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
       </c>
       <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,41 +2203,41 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-500</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
       </c>
       <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-500</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
       </c>
       <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,87 +2573,91 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2576,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>500</v>
@@ -2584,8 +2674,8 @@
       <c r="M42" s="3">
         <v>500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3">
+        <v>500</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
@@ -2599,8 +2689,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2611,16 +2701,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2644,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2662,19 +2755,22 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2721,39 +2817,42 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
       </c>
       <c r="V44" s="3">
+        <v>300</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2762,26 +2861,26 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,81 +2896,87 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1000</v>
       </c>
       <c r="V46" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E47" s="3">
         <v>900</v>
       </c>
       <c r="F47" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G47" s="3">
         <v>500</v>
@@ -2895,14 +3000,14 @@
         <v>500</v>
       </c>
       <c r="N47" s="3">
+        <v>500</v>
+      </c>
+      <c r="O47" s="3">
         <v>900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2939,13 +3047,13 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2963,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
@@ -2978,13 +3086,16 @@
         <v>300</v>
       </c>
       <c r="U48" s="3">
+        <v>300</v>
+      </c>
+      <c r="V48" s="3">
         <v>200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,61 +3416,64 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1100</v>
       </c>
       <c r="I54" s="3">
         <v>1100</v>
       </c>
       <c r="J54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>4500</v>
       </c>
       <c r="P54" s="3">
         <v>4500</v>
       </c>
       <c r="Q54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1100</v>
       </c>
       <c r="U54" s="3">
         <v>1100</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,16 +3533,17 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3430,19 +3561,19 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3463,10 +3594,13 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3479,38 +3613,38 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1200</v>
       </c>
       <c r="M58" s="3">
         <v>1200</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,28 +3673,28 @@
         <v>1600</v>
       </c>
       <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3569,7 +3706,7 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3581,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -3589,55 +3726,58 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
@@ -3646,13 +3786,16 @@
         <v>300</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,41 +3803,41 @@
         <v>2100</v>
       </c>
       <c r="E61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1400</v>
       </c>
       <c r="J61" s="3">
         <v>1400</v>
       </c>
       <c r="K61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3761,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -3770,13 +3916,16 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,52 +4116,55 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
@@ -4015,16 +4173,19 @@
         <v>400</v>
       </c>
       <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4216,14 +4384,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>200</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-24500</v>
       </c>
       <c r="H72" s="3">
         <v>-24500</v>
       </c>
       <c r="I72" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-23800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2500</v>
       </c>
       <c r="F76" s="3">
         <v>-2500</v>
       </c>
       <c r="G76" s="3">
-        <v>-2200</v>
+        <v>-2500</v>
       </c>
       <c r="H76" s="3">
         <v>-2200</v>
       </c>
       <c r="I76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
-      </c>
-      <c r="U76" s="3">
-        <v>700</v>
       </c>
       <c r="V76" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-500</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
       </c>
       <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,13 +5406,16 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -5207,7 +5424,7 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
@@ -5219,7 +5436,7 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -5231,31 +5448,34 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5299,13 +5520,13 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5313,17 +5534,17 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5335,13 +5556,16 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5485,29 +5715,29 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5521,13 +5751,16 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,38 +6041,41 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5837,16 +6083,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>200</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
@@ -5855,13 +6101,16 @@
         <v>200</v>
       </c>
       <c r="U100" s="3">
+        <v>200</v>
+      </c>
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5886,14 +6135,14 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5931,43 +6183,43 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>200</v>
       </c>
       <c r="K102" s="3">
         <v>200</v>
       </c>
       <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
@@ -5979,9 +6231,12 @@
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>
